--- a/data/trans_dic/P15D-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 48,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 38,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>3,4; 27,53</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,55%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>6,67; 31,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>13,07; 64,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>11,72; 36,37</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>36,65%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,67%</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>9,54; 73,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>6,92; 56,78</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,02%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>9,97; 33,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>9,23; 37,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>12,46; 30,12</t>
         </is>
       </c>
     </row>
